--- a/medicine/Enfance/Ann_Brashares/Ann_Brashares.xlsx
+++ b/medicine/Enfance/Ann_Brashares/Ann_Brashares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ann Brashares, née le 30 juillet 1967 à Alexandria en Virginie, est une écrivaine américaine d'ouvrages pour la jeunesse. Elle est particulièrement connue pour sa série Quatre Filles et un jean.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi ses études à la Sidwell Friends School à Washington, D.C., elle étudie la philosophie à l'Université Columbia. Elle travaille ensuite chez un éditeur jusqu'à la publication de son premier ouvrage.
 Elle vit actuellement à Brooklyn avec son mari Jacob Collins et leurs quatre enfants.
@@ -545,21 +559,94 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Quatre Filles et un jean
-Quatre Filles et un jean, Gallimard Jeunesse, 2002 ((en) The Sisterhood of the Traveling Pants, Delacorte Books, 2001), trad. Vanessa Rubio
+          <t>Série Quatre Filles et un jean</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quatre Filles et un jean, Gallimard Jeunesse, 2002 ((en) The Sisterhood of the Traveling Pants, Delacorte Books, 2001), trad. Vanessa Rubio
 Le Deuxième Été, Gallimard Jeunesse, 2003 ((en) The Second Summer of the Sisterhood, Delacorte Books, 2003), trad. Vanessa Rubio
 Le Troisième Été, Gallimard Jeunesse, 2005 ((en) Girls in Pants: The Third Summer of the Sisterhood, Delacorte Books, 2005), trad. Vanessa Rubio
 Le Dernier Été, Gallimard Jeunesse, 2007 ((en) Forever in Blue: The Fourth Summer of the Sisterhood, Delacorte Books, 2007), trad. Vanessa Rubio
-Pour toujours, Gallimard Jeunesse, 2012 ((en) Sisterhood Everlasting, Delacorte Books, 2012), trad. Vanessa Rubio
-Romans indépendants
-(en) Girl of Lost Things, 2006
+Pour toujours, Gallimard Jeunesse, 2012 ((en) Sisterhood Everlasting, Delacorte Books, 2012), trad. Vanessa Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ann_Brashares</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ann_Brashares</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Girl of Lost Things, 2006
 Toi et moi à jamais, Gallimard Jeunesse, 2008 ((en) The Last Summer (of You and Me), Riverhead Books, 2007), trad. Vanessa Rubio
 Trois Amies pour la vie, Gallimard Jeunesse, 2010 ((en) 3 Willows: The Sisterhood Grows, Delacorte Books, 2009), trad. Vanessa Rubio
 L'amour dure plus qu'une vie, Gallimard Jeunesse, 2011 ((en) My Name Is Memory, 2010)
 Ici et maintenant, Gallimard Jeunesse, 2014 ((en) The Here and Now, 2014)
-Ces liens qui nous séparent, Gallimard Jeunesse, 2017 ((en) The Whole Thing Together, 2017)
-Essais
-(en) Linus Torvalds, Software Rebel, 21st Century, 2001
+Ces liens qui nous séparent, Gallimard Jeunesse, 2017 ((en) The Whole Thing Together, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ann_Brashares</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ann_Brashares</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Linus Torvalds, Software Rebel, 21st Century, 2001
 (en) Steve Jobs: Think Different, Millbrook Press, 2001
 (en) Keep in Touch: Letters, Notes, and More from the Sisterhood of the Traveling Pants, 2005</t>
         </is>
